--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.107864383171648</v>
+        <v>0.178451</v>
       </c>
       <c r="N2">
-        <v>0.107864383171648</v>
+        <v>0.356902</v>
       </c>
       <c r="O2">
-        <v>0.001973354942288577</v>
+        <v>0.00304918115392426</v>
       </c>
       <c r="P2">
-        <v>0.001973354942288577</v>
+        <v>0.002043403010828968</v>
       </c>
       <c r="Q2">
-        <v>21.01546318461157</v>
+        <v>34.8120851895635</v>
       </c>
       <c r="R2">
-        <v>21.01546318461157</v>
+        <v>139.248340758254</v>
       </c>
       <c r="S2">
-        <v>0.0005286373328694487</v>
+        <v>0.0008051684595647368</v>
       </c>
       <c r="T2">
-        <v>0.0005286373328694487</v>
+        <v>0.0004050650586920794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.1185296491848</v>
+        <v>20.44738666666667</v>
       </c>
       <c r="N3">
-        <v>18.1185296491848</v>
+        <v>61.34216</v>
       </c>
       <c r="O3">
-        <v>0.3314744772917675</v>
+        <v>0.3493832260452572</v>
       </c>
       <c r="P3">
-        <v>0.3314744772917675</v>
+        <v>0.3512077669353275</v>
       </c>
       <c r="Q3">
-        <v>3530.074354532823</v>
+        <v>3988.860620248387</v>
       </c>
       <c r="R3">
-        <v>3530.074354532823</v>
+        <v>23933.16372149032</v>
       </c>
       <c r="S3">
-        <v>0.08879790443912426</v>
+        <v>0.09225832763349344</v>
       </c>
       <c r="T3">
-        <v>0.08879790443912426</v>
+        <v>0.06962013561341468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H4">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I4">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J4">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.7515055148144</v>
+        <v>36.926183</v>
       </c>
       <c r="N4">
-        <v>35.7515055148144</v>
+        <v>110.778549</v>
       </c>
       <c r="O4">
-        <v>0.6540658559150819</v>
+        <v>0.6309553955425209</v>
       </c>
       <c r="P4">
-        <v>0.6540658559150819</v>
+        <v>0.6342503560133154</v>
       </c>
       <c r="Q4">
-        <v>6965.547160691563</v>
+        <v>7203.531660351646</v>
       </c>
       <c r="R4">
-        <v>6965.547160691563</v>
+        <v>43221.18996210987</v>
       </c>
       <c r="S4">
-        <v>0.1752161368349307</v>
+        <v>0.1666104302229496</v>
       </c>
       <c r="T4">
-        <v>0.1752161368349307</v>
+        <v>0.1257278453259113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H5">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I5">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J5">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.682506880551398</v>
+        <v>0.2385586666666667</v>
       </c>
       <c r="N5">
-        <v>0.682506880551398</v>
+        <v>0.715676</v>
       </c>
       <c r="O5">
-        <v>0.01248631185086193</v>
+        <v>0.004076237121144177</v>
       </c>
       <c r="P5">
-        <v>0.01248631185086193</v>
+        <v>0.004097523951051079</v>
       </c>
       <c r="Q5">
-        <v>132.9743683663143</v>
+        <v>46.53784303090867</v>
       </c>
       <c r="R5">
-        <v>132.9743683663143</v>
+        <v>279.227058185452</v>
       </c>
       <c r="S5">
-        <v>0.003344928199566934</v>
+        <v>0.001076373425510743</v>
       </c>
       <c r="T5">
-        <v>0.003344928199566934</v>
+        <v>0.0008122547392407793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H6">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I6">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J6">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.107864383171648</v>
+        <v>0.7336575</v>
       </c>
       <c r="N6">
-        <v>0.107864383171648</v>
+        <v>1.467315</v>
       </c>
       <c r="O6">
-        <v>0.001973354942288577</v>
+        <v>0.01253596013715355</v>
       </c>
       <c r="P6">
-        <v>0.001973354942288577</v>
+        <v>0.008400950089476961</v>
       </c>
       <c r="Q6">
-        <v>6.342749946138301</v>
+        <v>143.1213464198137</v>
       </c>
       <c r="R6">
-        <v>6.342749946138301</v>
+        <v>572.4853856792549</v>
       </c>
       <c r="S6">
-        <v>0.0001595498697853879</v>
+        <v>0.003310252557414169</v>
       </c>
       <c r="T6">
-        <v>0.0001595498697853879</v>
+        <v>0.001665325598048676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H7">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J7">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.1185296491848</v>
+        <v>0.178451</v>
       </c>
       <c r="N7">
-        <v>18.1185296491848</v>
+        <v>0.356902</v>
       </c>
       <c r="O7">
-        <v>0.3314744772917675</v>
+        <v>0.00304918115392426</v>
       </c>
       <c r="P7">
-        <v>0.3314744772917675</v>
+        <v>0.002043403010828968</v>
       </c>
       <c r="Q7">
-        <v>1065.424003524817</v>
+        <v>11.13675614830567</v>
       </c>
       <c r="R7">
-        <v>1065.424003524817</v>
+        <v>66.820536889834</v>
       </c>
       <c r="S7">
-        <v>0.02680040400017761</v>
+        <v>0.0002575819501661923</v>
       </c>
       <c r="T7">
-        <v>0.02680040400017761</v>
+        <v>0.0001943769279384572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H8">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J8">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.7515055148144</v>
+        <v>20.44738666666667</v>
       </c>
       <c r="N8">
-        <v>35.7515055148144</v>
+        <v>61.34216</v>
       </c>
       <c r="O8">
-        <v>0.6540658559150819</v>
+        <v>0.3493832260452572</v>
       </c>
       <c r="P8">
-        <v>0.6540658559150819</v>
+        <v>0.3512077669353275</v>
       </c>
       <c r="Q8">
-        <v>2102.295985113059</v>
+        <v>1276.078919012969</v>
       </c>
       <c r="R8">
-        <v>2102.295985113059</v>
+        <v>11484.71027111672</v>
       </c>
       <c r="S8">
-        <v>0.05288259091458416</v>
+        <v>0.02951441983178686</v>
       </c>
       <c r="T8">
-        <v>0.05288259091458416</v>
+        <v>0.03340833229824801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.8030057710976</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H9">
-        <v>58.8030057710976</v>
+        <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08085208918389093</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J9">
-        <v>0.08085208918389093</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.682506880551398</v>
+        <v>36.926183</v>
       </c>
       <c r="N9">
-        <v>0.682506880551398</v>
+        <v>110.778549</v>
       </c>
       <c r="O9">
-        <v>0.01248631185086193</v>
+        <v>0.6309553955425209</v>
       </c>
       <c r="P9">
-        <v>0.01248631185086193</v>
+        <v>0.6342503560133154</v>
       </c>
       <c r="Q9">
-        <v>40.13345603587768</v>
+        <v>2304.486360730454</v>
       </c>
       <c r="R9">
-        <v>40.13345603587768</v>
+        <v>20740.37724657408</v>
       </c>
       <c r="S9">
-        <v>0.001009544399343763</v>
+        <v>0.05330044790633674</v>
       </c>
       <c r="T9">
-        <v>0.001009544399343763</v>
+        <v>0.06033251154686678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H10">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J10">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.107864383171648</v>
+        <v>0.2385586666666667</v>
       </c>
       <c r="N10">
-        <v>0.107864383171648</v>
+        <v>0.715676</v>
       </c>
       <c r="O10">
-        <v>0.001973354942288577</v>
+        <v>0.004076237121144177</v>
       </c>
       <c r="P10">
-        <v>0.001973354942288577</v>
+        <v>0.004097523951051079</v>
       </c>
       <c r="Q10">
-        <v>15.39834958785244</v>
+        <v>14.88795074127689</v>
       </c>
       <c r="R10">
-        <v>15.39834958785244</v>
+        <v>133.991556671492</v>
       </c>
       <c r="S10">
-        <v>0.0003873406160599995</v>
+        <v>0.0003443433020215443</v>
       </c>
       <c r="T10">
-        <v>0.0003873406160599995</v>
+        <v>0.0003897733895559097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H11">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J11">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.1185296491848</v>
+        <v>0.7336575</v>
       </c>
       <c r="N11">
-        <v>18.1185296491848</v>
+        <v>1.467315</v>
       </c>
       <c r="O11">
-        <v>0.3314744772917675</v>
+        <v>0.01253596013715355</v>
       </c>
       <c r="P11">
-        <v>0.3314744772917675</v>
+        <v>0.008400950089476961</v>
       </c>
       <c r="Q11">
-        <v>2586.539183300596</v>
+        <v>45.7860402792675</v>
       </c>
       <c r="R11">
-        <v>2586.539183300596</v>
+        <v>274.716241675605</v>
       </c>
       <c r="S11">
-        <v>0.06506357548300792</v>
+        <v>0.001058984985256755</v>
       </c>
       <c r="T11">
-        <v>0.06506357548300792</v>
+        <v>0.0007991330449759802</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H12">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I12">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J12">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.7515055148144</v>
+        <v>0.178451</v>
       </c>
       <c r="N12">
-        <v>35.7515055148144</v>
+        <v>0.356902</v>
       </c>
       <c r="O12">
-        <v>0.6540658559150819</v>
+        <v>0.00304918115392426</v>
       </c>
       <c r="P12">
-        <v>0.6540658559150819</v>
+        <v>0.002043403010828968</v>
       </c>
       <c r="Q12">
-        <v>5103.762372915032</v>
+        <v>25.49388662954467</v>
       </c>
       <c r="R12">
-        <v>5103.762372915032</v>
+        <v>152.963319777268</v>
       </c>
       <c r="S12">
-        <v>0.1283835290574453</v>
+        <v>0.0005896479143393105</v>
       </c>
       <c r="T12">
-        <v>0.1283835290574453</v>
+        <v>0.0004449611088069045</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,122 +1216,122 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.756572049817</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H13">
-        <v>142.756572049817</v>
+        <v>428.586334</v>
       </c>
       <c r="I13">
-        <v>0.1962853249354044</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J13">
-        <v>0.1962853249354044</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.682506880551398</v>
+        <v>20.44738666666667</v>
       </c>
       <c r="N13">
-        <v>0.682506880551398</v>
+        <v>61.34216</v>
       </c>
       <c r="O13">
-        <v>0.01248631185086193</v>
+        <v>0.3493832260452572</v>
       </c>
       <c r="P13">
-        <v>0.01248631185086193</v>
+        <v>0.3512077669353275</v>
       </c>
       <c r="Q13">
-        <v>97.43234266793149</v>
+        <v>2921.156830449049</v>
       </c>
       <c r="R13">
-        <v>97.43234266793149</v>
+        <v>26290.41147404144</v>
       </c>
       <c r="S13">
-        <v>0.002450879778891225</v>
+        <v>0.067563414616278</v>
       </c>
       <c r="T13">
-        <v>0.002450879778891225</v>
+        <v>0.07647722772696859</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H14">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I14">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J14">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.107864383171648</v>
+        <v>36.926183</v>
       </c>
       <c r="N14">
-        <v>0.107864383171648</v>
+        <v>110.778549</v>
       </c>
       <c r="O14">
-        <v>0.001973354942288577</v>
+        <v>0.6309553955425209</v>
       </c>
       <c r="P14">
-        <v>0.001973354942288577</v>
+        <v>0.6342503560133154</v>
       </c>
       <c r="Q14">
-        <v>15.1823940847464</v>
+        <v>5275.352466861041</v>
       </c>
       <c r="R14">
-        <v>15.1823940847464</v>
+        <v>47478.17220174936</v>
       </c>
       <c r="S14">
-        <v>0.0003819083236485693</v>
+        <v>0.1220135879903262</v>
       </c>
       <c r="T14">
-        <v>0.0003819083236485693</v>
+        <v>0.1381111509463662</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H15">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I15">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J15">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>18.1185296491848</v>
+        <v>0.2385586666666667</v>
       </c>
       <c r="N15">
-        <v>18.1185296491848</v>
+        <v>0.715676</v>
       </c>
       <c r="O15">
-        <v>0.3314744772917675</v>
+        <v>0.004076237121144177</v>
       </c>
       <c r="P15">
-        <v>0.3314744772917675</v>
+        <v>0.004097523951051079</v>
       </c>
       <c r="Q15">
-        <v>2550.264037873724</v>
+        <v>34.08099479686489</v>
       </c>
       <c r="R15">
-        <v>2550.264037873724</v>
+        <v>306.728953171784</v>
       </c>
       <c r="S15">
-        <v>0.06415108566732046</v>
+        <v>0.000788259075306761</v>
       </c>
       <c r="T15">
-        <v>0.06415108566732046</v>
+        <v>0.0008922560997318315</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.754469995774</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H16">
-        <v>140.754469995774</v>
+        <v>428.586334</v>
       </c>
       <c r="I16">
-        <v>0.1935325041959534</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J16">
-        <v>0.1935325041959534</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>35.7515055148144</v>
+        <v>0.7336575</v>
       </c>
       <c r="N16">
-        <v>35.7515055148144</v>
+        <v>1.467315</v>
       </c>
       <c r="O16">
-        <v>0.6540658559150819</v>
+        <v>0.01253596013715355</v>
       </c>
       <c r="P16">
-        <v>0.6540658559150819</v>
+        <v>0.008400950089476961</v>
       </c>
       <c r="Q16">
-        <v>5032.184210288692</v>
+        <v>104.811859445535</v>
       </c>
       <c r="R16">
-        <v>5032.184210288692</v>
+        <v>628.87115667321</v>
       </c>
       <c r="S16">
-        <v>0.1265830030043155</v>
+        <v>0.002424192717969598</v>
       </c>
       <c r="T16">
-        <v>0.1265830030043155</v>
+        <v>0.001829348418806852</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.754469995774</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H17">
-        <v>140.754469995774</v>
+        <v>424.850525</v>
       </c>
       <c r="I17">
-        <v>0.1935325041959534</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J17">
-        <v>0.1935325041959534</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.682506880551398</v>
+        <v>0.178451</v>
       </c>
       <c r="N17">
-        <v>0.682506880551398</v>
+        <v>0.356902</v>
       </c>
       <c r="O17">
-        <v>0.01248631185086193</v>
+        <v>0.00304918115392426</v>
       </c>
       <c r="P17">
-        <v>0.01248631185086193</v>
+        <v>0.002043403010828968</v>
       </c>
       <c r="Q17">
-        <v>96.06589424048106</v>
+        <v>25.27166701225833</v>
       </c>
       <c r="R17">
-        <v>96.06589424048106</v>
+        <v>151.63000207355</v>
       </c>
       <c r="S17">
-        <v>0.002416507200668919</v>
+        <v>0.0005845081984630221</v>
       </c>
       <c r="T17">
-        <v>0.002416507200668919</v>
+        <v>0.0004410825676984733</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H18">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I18">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J18">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.107864383171648</v>
+        <v>20.44738666666667</v>
       </c>
       <c r="N18">
-        <v>0.107864383171648</v>
+        <v>61.34216</v>
       </c>
       <c r="O18">
-        <v>0.001973354942288577</v>
+        <v>0.3493832260452572</v>
       </c>
       <c r="P18">
-        <v>0.001973354942288577</v>
+        <v>0.3512077669353275</v>
       </c>
       <c r="Q18">
-        <v>14.79897483426237</v>
+        <v>2895.694320070444</v>
       </c>
       <c r="R18">
-        <v>14.79897483426237</v>
+        <v>26061.248880634</v>
       </c>
       <c r="S18">
-        <v>0.0003722635336115313</v>
+        <v>0.06697449240301344</v>
       </c>
       <c r="T18">
-        <v>0.0003722635336115313</v>
+        <v>0.07581060750842131</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,122 +1588,122 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H19">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I19">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J19">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.1185296491848</v>
+        <v>36.926183</v>
       </c>
       <c r="N19">
-        <v>18.1185296491848</v>
+        <v>110.778549</v>
       </c>
       <c r="O19">
-        <v>0.3314744772917675</v>
+        <v>0.6309553955425209</v>
       </c>
       <c r="P19">
-        <v>0.3314744772917675</v>
+        <v>0.6342503560133154</v>
       </c>
       <c r="Q19">
-        <v>2485.859154132738</v>
+        <v>5229.369411265358</v>
       </c>
       <c r="R19">
-        <v>2485.859154132738</v>
+        <v>47064.32470138823</v>
       </c>
       <c r="S19">
-        <v>0.06253100117688999</v>
+        <v>0.1209500462392807</v>
       </c>
       <c r="T19">
-        <v>0.06253100117688999</v>
+        <v>0.1369072934274146</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H20">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I20">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J20">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>35.7515055148144</v>
+        <v>0.2385586666666667</v>
       </c>
       <c r="N20">
-        <v>35.7515055148144</v>
+        <v>0.715676</v>
       </c>
       <c r="O20">
-        <v>0.6540658559150819</v>
+        <v>0.004076237121144177</v>
       </c>
       <c r="P20">
-        <v>0.6540658559150819</v>
+        <v>0.004097523951051079</v>
       </c>
       <c r="Q20">
-        <v>4905.100412605891</v>
+        <v>33.78392492554444</v>
       </c>
       <c r="R20">
-        <v>4905.100412605891</v>
+        <v>304.0553243299</v>
       </c>
       <c r="S20">
-        <v>0.1233862502481283</v>
+        <v>0.0007813881484613364</v>
       </c>
       <c r="T20">
-        <v>0.1233862502481283</v>
+        <v>0.0008844786740342519</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>137.199828146352</v>
+        <v>141.6168416666667</v>
       </c>
       <c r="H21">
-        <v>137.199828146352</v>
+        <v>424.850525</v>
       </c>
       <c r="I21">
-        <v>0.1886449951977736</v>
+        <v>0.1916934970264942</v>
       </c>
       <c r="J21">
-        <v>0.1886449951977736</v>
+        <v>0.2158568649262854</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.682506880551398</v>
+        <v>0.7336575</v>
       </c>
       <c r="N21">
-        <v>0.682506880551398</v>
+        <v>1.467315</v>
       </c>
       <c r="O21">
-        <v>0.01248631185086193</v>
+        <v>0.01253596013715355</v>
       </c>
       <c r="P21">
-        <v>0.01248631185086193</v>
+        <v>0.008400950089476961</v>
       </c>
       <c r="Q21">
-        <v>93.63982672035459</v>
+        <v>103.8982580150625</v>
       </c>
       <c r="R21">
-        <v>93.63982672035459</v>
+        <v>623.389548090375</v>
       </c>
       <c r="S21">
-        <v>0.002355480239143752</v>
+        <v>0.002403062037275693</v>
       </c>
       <c r="T21">
-        <v>0.002355480239143752</v>
+        <v>0.001813402748716694</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>52.9449598765086</v>
+        <v>143.783834</v>
       </c>
       <c r="H22">
-        <v>52.9449598765086</v>
+        <v>431.351502</v>
       </c>
       <c r="I22">
-        <v>0.07279747968048636</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J22">
-        <v>0.07279747968048636</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.107864383171648</v>
+        <v>0.178451</v>
       </c>
       <c r="N22">
-        <v>0.107864383171648</v>
+        <v>0.356902</v>
       </c>
       <c r="O22">
-        <v>0.001973354942288577</v>
+        <v>0.00304918115392426</v>
       </c>
       <c r="P22">
-        <v>0.001973354942288577</v>
+        <v>0.002043403010828968</v>
       </c>
       <c r="Q22">
-        <v>5.710875439127252</v>
+        <v>25.658368961134</v>
       </c>
       <c r="R22">
-        <v>5.710875439127252</v>
+        <v>153.950213766804</v>
       </c>
       <c r="S22">
-        <v>0.00014365526631364</v>
+        <v>0.000593452224963918</v>
       </c>
       <c r="T22">
-        <v>0.00014365526631364</v>
+        <v>0.0004478319241402683</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,57 +1839,57 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>52.9449598765086</v>
+        <v>143.783834</v>
       </c>
       <c r="H23">
-        <v>52.9449598765086</v>
+        <v>431.351502</v>
       </c>
       <c r="I23">
-        <v>0.07279747968048636</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J23">
-        <v>0.07279747968048636</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.1185296491848</v>
+        <v>20.44738666666667</v>
       </c>
       <c r="N23">
-        <v>18.1185296491848</v>
+        <v>61.34216</v>
       </c>
       <c r="O23">
-        <v>0.3314744772917675</v>
+        <v>0.3493832260452572</v>
       </c>
       <c r="P23">
-        <v>0.3314744772917675</v>
+        <v>0.3512077669353275</v>
       </c>
       <c r="Q23">
-        <v>959.2848252974206</v>
+        <v>2940.003650213813</v>
       </c>
       <c r="R23">
-        <v>959.2848252974206</v>
+        <v>26460.03285192432</v>
       </c>
       <c r="S23">
-        <v>0.02413050652524728</v>
+        <v>0.06799932257051451</v>
       </c>
       <c r="T23">
-        <v>0.02413050652524728</v>
+        <v>0.07697064612616404</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,114 +1901,486 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>52.9449598765086</v>
+        <v>143.783834</v>
       </c>
       <c r="H24">
-        <v>52.9449598765086</v>
+        <v>431.351502</v>
       </c>
       <c r="I24">
-        <v>0.07279747968048636</v>
+        <v>0.1946267522348261</v>
       </c>
       <c r="J24">
-        <v>0.07279747968048636</v>
+        <v>0.2191598631141254</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>35.7515055148144</v>
+        <v>36.926183</v>
       </c>
       <c r="N24">
-        <v>35.7515055148144</v>
+        <v>110.778549</v>
       </c>
       <c r="O24">
-        <v>0.6540658559150819</v>
+        <v>0.6309553955425209</v>
       </c>
       <c r="P24">
-        <v>0.6540658559150819</v>
+        <v>0.6342503560133154</v>
       </c>
       <c r="Q24">
-        <v>1892.862025006624</v>
+        <v>5309.388166725622</v>
       </c>
       <c r="R24">
-        <v>1892.862025006624</v>
+        <v>47784.4935005306</v>
       </c>
       <c r="S24">
-        <v>0.04761434585567809</v>
+        <v>0.1228007994394809</v>
       </c>
       <c r="T24">
-        <v>0.04761434585567809</v>
+        <v>0.1390022212039635</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>143.783834</v>
+      </c>
+      <c r="H25">
+        <v>431.351502</v>
+      </c>
+      <c r="I25">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J25">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.2385586666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.715676</v>
+      </c>
+      <c r="O25">
+        <v>0.004076237121144177</v>
+      </c>
+      <c r="P25">
+        <v>0.004097523951051079</v>
+      </c>
+      <c r="Q25">
+        <v>34.30087972726133</v>
+      </c>
+      <c r="R25">
+        <v>308.707917545352</v>
+      </c>
+      <c r="S25">
+        <v>0.0007933447922273285</v>
+      </c>
+      <c r="T25">
+        <v>0.0008980127882192048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>143.783834</v>
+      </c>
+      <c r="H26">
+        <v>431.351502</v>
+      </c>
+      <c r="I26">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J26">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.7336575</v>
+      </c>
+      <c r="N26">
+        <v>1.467315</v>
+      </c>
+      <c r="O26">
+        <v>0.01253596013715355</v>
+      </c>
+      <c r="P26">
+        <v>0.008400950089476961</v>
+      </c>
+      <c r="Q26">
+        <v>105.488088192855</v>
+      </c>
+      <c r="R26">
+        <v>632.9285291571299</v>
+      </c>
+      <c r="S26">
+        <v>0.00243983320763944</v>
+      </c>
+      <c r="T26">
+        <v>0.00184115107163837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>52.9449598765086</v>
-      </c>
-      <c r="H25">
-        <v>52.9449598765086</v>
-      </c>
-      <c r="I25">
-        <v>0.07279747968048636</v>
-      </c>
-      <c r="J25">
-        <v>0.07279747968048636</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.682506880551398</v>
-      </c>
-      <c r="N25">
-        <v>0.682506880551398</v>
-      </c>
-      <c r="O25">
-        <v>0.01248631185086193</v>
-      </c>
-      <c r="P25">
-        <v>0.01248631185086193</v>
-      </c>
-      <c r="Q25">
-        <v>36.13529940623481</v>
-      </c>
-      <c r="R25">
-        <v>36.13529940623481</v>
-      </c>
-      <c r="S25">
-        <v>0.0009089720332473374</v>
-      </c>
-      <c r="T25">
-        <v>0.0009089720332473374</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H27">
+        <v>106.034229</v>
+      </c>
+      <c r="I27">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J27">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.178451</v>
+      </c>
+      <c r="N27">
+        <v>0.356902</v>
+      </c>
+      <c r="O27">
+        <v>0.00304918115392426</v>
+      </c>
+      <c r="P27">
+        <v>0.002043403010828968</v>
+      </c>
+      <c r="Q27">
+        <v>9.460957099639501</v>
+      </c>
+      <c r="R27">
+        <v>37.843828398558</v>
+      </c>
+      <c r="S27">
+        <v>0.00021882240642708</v>
+      </c>
+      <c r="T27">
+        <v>0.0001100854235527847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H28">
+        <v>106.034229</v>
+      </c>
+      <c r="I28">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J28">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>20.44738666666667</v>
+      </c>
+      <c r="N28">
+        <v>61.34216</v>
+      </c>
+      <c r="O28">
+        <v>0.3493832260452572</v>
+      </c>
+      <c r="P28">
+        <v>0.3512077669353275</v>
+      </c>
+      <c r="Q28">
+        <v>1084.06144013244</v>
+      </c>
+      <c r="R28">
+        <v>6504.368640794641</v>
+      </c>
+      <c r="S28">
+        <v>0.02507324899017092</v>
+      </c>
+      <c r="T28">
+        <v>0.01892081766211084</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H29">
+        <v>106.034229</v>
+      </c>
+      <c r="I29">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J29">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>36.926183</v>
+      </c>
+      <c r="N29">
+        <v>110.778549</v>
+      </c>
+      <c r="O29">
+        <v>0.6309553955425209</v>
+      </c>
+      <c r="P29">
+        <v>0.6342503560133154</v>
+      </c>
+      <c r="Q29">
+        <v>1957.719672158954</v>
+      </c>
+      <c r="R29">
+        <v>11746.31803295372</v>
+      </c>
+      <c r="S29">
+        <v>0.04528008374414676</v>
+      </c>
+      <c r="T29">
+        <v>0.03416933356279289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H30">
+        <v>106.034229</v>
+      </c>
+      <c r="I30">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J30">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.2385586666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.715676</v>
+      </c>
+      <c r="O30">
+        <v>0.004076237121144177</v>
+      </c>
+      <c r="P30">
+        <v>0.004097523951051079</v>
+      </c>
+      <c r="Q30">
+        <v>12.647692145634</v>
+      </c>
+      <c r="R30">
+        <v>75.88615287380401</v>
+      </c>
+      <c r="S30">
+        <v>0.0002925283776164642</v>
+      </c>
+      <c r="T30">
+        <v>0.0002207482602691011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H31">
+        <v>106.034229</v>
+      </c>
+      <c r="I31">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J31">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.7336575</v>
+      </c>
+      <c r="N31">
+        <v>1.467315</v>
+      </c>
+      <c r="O31">
+        <v>0.01253596013715355</v>
+      </c>
+      <c r="P31">
+        <v>0.008400950089476961</v>
+      </c>
+      <c r="Q31">
+        <v>38.89640368128375</v>
+      </c>
+      <c r="R31">
+        <v>155.585614725135</v>
+      </c>
+      <c r="S31">
+        <v>0.0008996346315978921</v>
+      </c>
+      <c r="T31">
+        <v>0.0004525892072903885</v>
       </c>
     </row>
   </sheetData>
